--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02910539998519134</v>
+        <v>0.04366584981362852</v>
       </c>
       <c r="C7">
-        <v>0.2495954779660972</v>
+        <v>0.2151581326876664</v>
       </c>
       <c r="D7">
-        <v>0.07525976850965677</v>
+        <v>0.06088480029806752</v>
       </c>
       <c r="E7">
-        <v>0.2743351390355541</v>
+        <v>0.2467484555130336</v>
       </c>
       <c r="F7">
-        <v>0.2946434312321453</v>
+        <v>0.2575856276859916</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1830690005028825</v>
+        <v>0.05516078357601667</v>
       </c>
       <c r="C8">
-        <v>0.4414049666475762</v>
+        <v>0.3645461267824502</v>
       </c>
       <c r="D8">
-        <v>0.2269055231995027</v>
+        <v>0.1795074568246066</v>
       </c>
       <c r="E8">
-        <v>0.4763460120537409</v>
+        <v>0.4236832033779562</v>
       </c>
       <c r="F8">
-        <v>0.5077942683861623</v>
+        <v>0.4601713743116403</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6442531788811486</v>
+        <v>0.1972001695263083</v>
       </c>
       <c r="C9">
-        <v>0.6442531788811486</v>
+        <v>0.2323019497277908</v>
       </c>
       <c r="D9">
-        <v>0.4150621584984653</v>
+        <v>0.138851959107692</v>
       </c>
       <c r="E9">
-        <v>0.6442531788811486</v>
+        <v>0.3726284464553022</v>
+      </c>
+      <c r="F9">
+        <v>0.3872287158382381</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.06854498788710228</v>
+      </c>
+      <c r="C10">
+        <v>0.06854498788710228</v>
+      </c>
+      <c r="D10">
+        <v>0.004698415364442998</v>
+      </c>
+      <c r="E10">
+        <v>0.06854498788710228</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02072586582259381</v>
+        <v>0.06284567650902455</v>
       </c>
       <c r="C2">
-        <v>0.2688591642468356</v>
+        <v>0.6441637244774302</v>
       </c>
       <c r="D2">
-        <v>0.1080501581648195</v>
+        <v>0.7722581226213636</v>
       </c>
       <c r="E2">
-        <v>0.3287098388622091</v>
+        <v>0.8787821815565924</v>
       </c>
       <c r="F2">
-        <v>0.3404395747932287</v>
+        <v>0.8852540394919396</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02917522874612686</v>
+        <v>-0.1148980440451865</v>
       </c>
       <c r="C3">
-        <v>0.3543611823049868</v>
+        <v>0.812265897056845</v>
       </c>
       <c r="D3">
-        <v>0.1877781471260624</v>
+        <v>1.412039409307321</v>
       </c>
       <c r="E3">
-        <v>0.4333337595042214</v>
+        <v>1.188292644640756</v>
       </c>
       <c r="F3">
-        <v>0.4500046658089369</v>
+        <v>1.194732421917788</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01089597283970098</v>
+        <v>0.06179048950849853</v>
       </c>
       <c r="C4">
-        <v>0.3847750974967211</v>
+        <v>0.7574901860148398</v>
       </c>
       <c r="D4">
-        <v>0.2570777106417165</v>
+        <v>0.970307845326831</v>
       </c>
       <c r="E4">
-        <v>0.5070283134517406</v>
+        <v>0.9850420525677221</v>
       </c>
       <c r="F4">
-        <v>0.529451505291614</v>
+        <v>0.9932899800654412</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04668195498224883</v>
+        <v>-0.1253060257331123</v>
       </c>
       <c r="C5">
-        <v>0.3238576233341104</v>
+        <v>0.8314090100821168</v>
       </c>
       <c r="D5">
-        <v>0.1589660425200329</v>
+        <v>1.348981947049162</v>
       </c>
       <c r="E5">
-        <v>0.3987054583524445</v>
+        <v>1.161456821000747</v>
       </c>
       <c r="F5">
-        <v>0.4152896836654806</v>
+        <v>1.166896745183917</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08916864494514318</v>
+        <v>0.02745591576579163</v>
       </c>
       <c r="C6">
-        <v>0.2554643357535792</v>
+        <v>0.7011270665634526</v>
       </c>
       <c r="D6">
-        <v>0.1147108249267944</v>
+        <v>0.9424265274435161</v>
       </c>
       <c r="E6">
-        <v>0.3386898654031361</v>
+        <v>0.9707865509181285</v>
       </c>
       <c r="F6">
-        <v>0.3444154108138107</v>
+        <v>0.9808893137291498</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04366584981362852</v>
+        <v>-0.1781507454251396</v>
       </c>
       <c r="C7">
-        <v>0.2151581326876664</v>
+        <v>0.7419848673622177</v>
       </c>
       <c r="D7">
-        <v>0.06088480029806752</v>
+        <v>1.093258070565441</v>
       </c>
       <c r="E7">
-        <v>0.2467484555130336</v>
+        <v>1.045589819463369</v>
       </c>
       <c r="F7">
-        <v>0.2575856276859916</v>
+        <v>1.04168600081914</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05516078357601667</v>
+        <v>-0.03744529641089314</v>
       </c>
       <c r="C8">
-        <v>0.3645461267824502</v>
+        <v>0.7201853156618916</v>
       </c>
       <c r="D8">
-        <v>0.1795074568246066</v>
+        <v>1.085640148578663</v>
       </c>
       <c r="E8">
-        <v>0.4236832033779562</v>
+        <v>1.041940568640392</v>
       </c>
       <c r="F8">
-        <v>0.4601713743116403</v>
+        <v>1.053033603948734</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1972001695263083</v>
+        <v>-0.1326544656744229</v>
       </c>
       <c r="C9">
-        <v>0.2323019497277908</v>
+        <v>0.8526928699447087</v>
       </c>
       <c r="D9">
-        <v>0.138851959107692</v>
+        <v>1.204565724579542</v>
       </c>
       <c r="E9">
-        <v>0.3726284464553022</v>
+        <v>1.097527095145966</v>
       </c>
       <c r="F9">
-        <v>0.3872287158382381</v>
+        <v>1.102076420364545</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06854498788710228</v>
+        <v>-0.06436346714910372</v>
       </c>
       <c r="C10">
-        <v>0.06854498788710228</v>
+        <v>0.8166505515847911</v>
       </c>
       <c r="D10">
-        <v>0.004698415364442998</v>
+        <v>1.166152122974641</v>
       </c>
       <c r="E10">
-        <v>0.06854498788710228</v>
+        <v>1.07988523602031</v>
+      </c>
+      <c r="F10">
+        <v>1.090722860833269</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.1139447951980307</v>
+      </c>
+      <c r="C11">
+        <v>0.7616368124151508</v>
+      </c>
+      <c r="D11">
+        <v>0.970461329011336</v>
+      </c>
+      <c r="E11">
+        <v>0.9851199566607794</v>
+      </c>
+      <c r="F11">
+        <v>0.9903691395028201</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06284567650902455</v>
+        <v>-0.1523570014496575</v>
       </c>
       <c r="C2">
-        <v>0.6441637244774302</v>
+        <v>0.5952141443068003</v>
       </c>
       <c r="D2">
-        <v>0.7722581226213636</v>
+        <v>0.9456359972335984</v>
       </c>
       <c r="E2">
-        <v>0.8787821815565924</v>
+        <v>0.9724381714194473</v>
       </c>
       <c r="F2">
-        <v>0.8852540394919396</v>
+        <v>0.972070713281458</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1148980440451865</v>
+        <v>0.06653507977193379</v>
       </c>
       <c r="C3">
-        <v>0.812265897056845</v>
+        <v>0.7435833224688242</v>
       </c>
       <c r="D3">
-        <v>1.412039409307321</v>
+        <v>0.9402494797260309</v>
       </c>
       <c r="E3">
-        <v>1.188292644640756</v>
+        <v>0.969664622292693</v>
       </c>
       <c r="F3">
-        <v>1.194732421917788</v>
+        <v>0.9793968179231123</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06179048950849853</v>
+        <v>-0.176468453233442</v>
       </c>
       <c r="C4">
-        <v>0.7574901860148398</v>
+        <v>0.9424928345913857</v>
       </c>
       <c r="D4">
-        <v>0.970307845326831</v>
+        <v>1.732816681911777</v>
       </c>
       <c r="E4">
-        <v>0.9850420525677221</v>
+        <v>1.316364950122791</v>
       </c>
       <c r="F4">
-        <v>0.9932899800654412</v>
+        <v>1.321101159551913</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1253060257331123</v>
+        <v>0.03757363485166248</v>
       </c>
       <c r="C5">
-        <v>0.8314090100821168</v>
+        <v>0.8767392780908844</v>
       </c>
       <c r="D5">
-        <v>1.348981947049162</v>
+        <v>1.179621929259555</v>
       </c>
       <c r="E5">
-        <v>1.161456821000747</v>
+        <v>1.086104014015027</v>
       </c>
       <c r="F5">
-        <v>1.166896745183917</v>
+        <v>1.099643433808863</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02745591576579163</v>
+        <v>-0.1919880024426686</v>
       </c>
       <c r="C6">
-        <v>0.7011270665634526</v>
+        <v>0.9766461047393071</v>
       </c>
       <c r="D6">
-        <v>0.9424265274435161</v>
+        <v>1.673456267335123</v>
       </c>
       <c r="E6">
-        <v>0.9707865509181285</v>
+        <v>1.293621377117402</v>
       </c>
       <c r="F6">
-        <v>0.9808893137291498</v>
+        <v>1.296467979630036</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1781507454251396</v>
+        <v>0.0107767997713723</v>
       </c>
       <c r="C7">
-        <v>0.7419848673622177</v>
+        <v>0.8215764532688238</v>
       </c>
       <c r="D7">
-        <v>1.093258070565441</v>
+        <v>1.166133474069657</v>
       </c>
       <c r="E7">
-        <v>1.045589819463369</v>
+        <v>1.079876601315936</v>
       </c>
       <c r="F7">
-        <v>1.04168600081914</v>
+        <v>1.094717637139123</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03744529641089314</v>
+        <v>-0.2391464184133537</v>
       </c>
       <c r="C8">
-        <v>0.7201853156618916</v>
+        <v>0.8937093494297598</v>
       </c>
       <c r="D8">
-        <v>1.085640148578663</v>
+        <v>1.381707013101544</v>
       </c>
       <c r="E8">
-        <v>1.041940568640392</v>
+        <v>1.175460340930967</v>
       </c>
       <c r="F8">
-        <v>1.053033603948734</v>
+        <v>1.167201489911635</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1326544656744229</v>
+        <v>-0.07625812354922183</v>
       </c>
       <c r="C9">
-        <v>0.8526928699447087</v>
+        <v>0.8357403131286991</v>
       </c>
       <c r="D9">
-        <v>1.204565724579542</v>
+        <v>1.353152740845836</v>
       </c>
       <c r="E9">
-        <v>1.097527095145966</v>
+        <v>1.163250936318487</v>
       </c>
       <c r="F9">
-        <v>1.102076420364545</v>
+        <v>1.177694786940479</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06436346714910372</v>
+        <v>-0.1780953643465996</v>
       </c>
       <c r="C10">
-        <v>0.8166505515847911</v>
+        <v>0.9948789155006484</v>
       </c>
       <c r="D10">
-        <v>1.166152122974641</v>
+        <v>1.498614834658811</v>
       </c>
       <c r="E10">
-        <v>1.07988523602031</v>
+        <v>1.224179249398882</v>
       </c>
       <c r="F10">
-        <v>1.090722860833269</v>
+        <v>1.229369064332424</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1139447951980307</v>
+        <v>-0.1309683401722337</v>
       </c>
       <c r="C11">
-        <v>0.7616368124151508</v>
+        <v>0.9196742041917211</v>
       </c>
       <c r="D11">
-        <v>0.970461329011336</v>
+        <v>1.399190577028793</v>
       </c>
       <c r="E11">
-        <v>0.9851199566607794</v>
+        <v>1.182873863532707</v>
       </c>
       <c r="F11">
-        <v>0.9903691395028201</v>
+        <v>1.193828528042026</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1523570014496575</v>
+        <v>-0.1666469423703062</v>
       </c>
       <c r="C2">
-        <v>0.5952141443068003</v>
+        <v>0.9509606678605024</v>
       </c>
       <c r="D2">
-        <v>0.9456359972335984</v>
+        <v>2.184837487917865</v>
       </c>
       <c r="E2">
-        <v>0.9724381714194473</v>
+        <v>1.478119578355508</v>
       </c>
       <c r="F2">
-        <v>0.972070713281458</v>
+        <v>1.483309681154553</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06653507977193379</v>
+        <v>0.002000000000000033</v>
       </c>
       <c r="C3">
-        <v>0.7435833224688242</v>
+        <v>0.9287446487405608</v>
       </c>
       <c r="D3">
-        <v>0.9402494797260309</v>
+        <v>1.798456400997298</v>
       </c>
       <c r="E3">
-        <v>0.969664622292693</v>
+        <v>1.341065397733197</v>
       </c>
       <c r="F3">
-        <v>0.9793968179231123</v>
+        <v>1.35467911743768</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.176468453233442</v>
+        <v>-0.1591631440997064</v>
       </c>
       <c r="C4">
-        <v>0.9424928345913857</v>
+        <v>1.072208946451886</v>
       </c>
       <c r="D4">
-        <v>1.732816681911777</v>
+        <v>2.35533142609807</v>
       </c>
       <c r="E4">
-        <v>1.316364950122791</v>
+        <v>1.534708905981219</v>
       </c>
       <c r="F4">
-        <v>1.321101159551913</v>
+        <v>1.542251651153139</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03757363485166248</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C5">
-        <v>0.8767392780908844</v>
+        <v>0.8807599323392677</v>
       </c>
       <c r="D5">
-        <v>1.179621929259555</v>
+        <v>1.488510007919557</v>
       </c>
       <c r="E5">
-        <v>1.086104014015027</v>
+        <v>1.2200450843799</v>
       </c>
       <c r="F5">
-        <v>1.099643433808863</v>
+        <v>1.232495712709348</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1919880024426686</v>
+        <v>-0.1552977459762897</v>
       </c>
       <c r="C6">
-        <v>0.9766461047393071</v>
+        <v>1.000813582471115</v>
       </c>
       <c r="D6">
-        <v>1.673456267335123</v>
+        <v>2.072363320995988</v>
       </c>
       <c r="E6">
-        <v>1.293621377117402</v>
+        <v>1.43957053352588</v>
       </c>
       <c r="F6">
-        <v>1.296467979630036</v>
+        <v>1.446641979395443</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0107767997713723</v>
+        <v>-0.006521739130434752</v>
       </c>
       <c r="C7">
-        <v>0.8215764532688238</v>
+        <v>0.9834180964571316</v>
       </c>
       <c r="D7">
-        <v>1.166133474069657</v>
+        <v>2.023865922148764</v>
       </c>
       <c r="E7">
-        <v>1.079876601315936</v>
+        <v>1.422626416930588</v>
       </c>
       <c r="F7">
-        <v>1.094717637139123</v>
+        <v>1.43833140901458</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2391464184133537</v>
+        <v>-0.2088665346863469</v>
       </c>
       <c r="C8">
-        <v>0.8937093494297598</v>
+        <v>0.9555332013530137</v>
       </c>
       <c r="D8">
-        <v>1.381707013101544</v>
+        <v>1.851038613531567</v>
       </c>
       <c r="E8">
-        <v>1.175460340930967</v>
+        <v>1.360528799229023</v>
       </c>
       <c r="F8">
-        <v>1.167201489911635</v>
+        <v>1.359592203983889</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07625812354922183</v>
+        <v>-0.07201400496622777</v>
       </c>
       <c r="C9">
-        <v>0.8357403131286991</v>
+        <v>0.9356503686025914</v>
       </c>
       <c r="D9">
-        <v>1.353152740845836</v>
+        <v>1.929814699519182</v>
       </c>
       <c r="E9">
-        <v>1.163250936318487</v>
+        <v>1.389177706241783</v>
       </c>
       <c r="F9">
-        <v>1.177694786940479</v>
+        <v>1.403348669853712</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1780953643465996</v>
+        <v>-0.1534649781601306</v>
       </c>
       <c r="C10">
-        <v>0.9948789155006484</v>
+        <v>1.021819497119591</v>
       </c>
       <c r="D10">
-        <v>1.498614834658811</v>
+        <v>1.979460155243461</v>
       </c>
       <c r="E10">
-        <v>1.224179249398882</v>
+        <v>1.406932889388638</v>
       </c>
       <c r="F10">
-        <v>1.229369064332424</v>
+        <v>1.415089364467641</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1309683401722337</v>
+        <v>-0.1040146718693815</v>
       </c>
       <c r="C11">
-        <v>0.9196742041917211</v>
+        <v>1.012091917470734</v>
       </c>
       <c r="D11">
-        <v>1.399190577028793</v>
+        <v>1.858474671290451</v>
       </c>
       <c r="E11">
-        <v>1.182873863532707</v>
+        <v>1.3632588423665</v>
       </c>
       <c r="F11">
-        <v>1.193828528042026</v>
+        <v>1.375761749188222</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006521739130434752</v>
+        <v>-0.03521679937216909</v>
       </c>
       <c r="C7">
-        <v>0.9834180964571316</v>
+        <v>1.035216799372169</v>
       </c>
       <c r="D7">
-        <v>2.023865922148764</v>
+        <v>2.260394904707727</v>
       </c>
       <c r="E7">
-        <v>1.422626416930588</v>
+        <v>1.503460975452215</v>
       </c>
       <c r="F7">
-        <v>1.43833140901458</v>
+        <v>1.523224512798948</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2088665346863469</v>
+        <v>-0.0694220599598384</v>
       </c>
       <c r="C8">
-        <v>0.9555332013530137</v>
+        <v>0.9613139518517302</v>
       </c>
       <c r="D8">
-        <v>1.851038613531567</v>
+        <v>1.915446284370705</v>
       </c>
       <c r="E8">
-        <v>1.360528799229023</v>
+        <v>1.383996490013867</v>
       </c>
       <c r="F8">
-        <v>1.359592203983889</v>
+        <v>1.401320744993615</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07201400496622777</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9356503686025914</v>
+        <v>1.11</v>
       </c>
       <c r="D9">
-        <v>1.929814699519182</v>
+        <v>2.875</v>
       </c>
       <c r="E9">
-        <v>1.389177706241783</v>
+        <v>1.695582495781317</v>
       </c>
       <c r="F9">
-        <v>1.403348669853712</v>
+        <v>1.737693571193845</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1534649781601306</v>
+        <v>-0.353846153846154</v>
       </c>
       <c r="C10">
-        <v>1.021819497119591</v>
+        <v>1.353846153846154</v>
       </c>
       <c r="D10">
-        <v>1.979460155243461</v>
+        <v>3.603076923076923</v>
       </c>
       <c r="E10">
-        <v>1.406932889388638</v>
+        <v>1.898177263344212</v>
       </c>
       <c r="F10">
-        <v>1.415089364467641</v>
+        <v>1.94105443192413</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1040146718693815</v>
+        <v>-0.9199999999999999</v>
       </c>
       <c r="C11">
-        <v>1.012091917470734</v>
+        <v>1.16</v>
       </c>
       <c r="D11">
-        <v>1.858474671290451</v>
+        <v>2.124</v>
       </c>
       <c r="E11">
-        <v>1.3632588423665</v>
+        <v>1.457394936178934</v>
       </c>
       <c r="F11">
-        <v>1.375761749188222</v>
+        <v>1.26372465355393</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
